--- a/recorded_data.xlsx
+++ b/recorded_data.xlsx
@@ -17,6 +17,7 @@
     <sheet name="538823862" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="538825184" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="538827377" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="538828395" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2402,12 +2403,132 @@
       <c r="A20" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Iteration</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Shanghai Port</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Shanghai Port Score</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq Score</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.485</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.425</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.944</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>00:22</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/recorded_data.xlsx
+++ b/recorded_data.xlsx
@@ -2415,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,6 +2527,181 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2.075</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.235</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>00:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.995</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>01:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>01:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>02:01</t>
         </is>
       </c>
     </row>

--- a/recorded_data.xlsx
+++ b/recorded_data.xlsx
@@ -18,6 +18,7 @@
     <sheet name="538825184" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="538827377" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="538828395" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="538829673" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2415,7 +2416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2702,6 +2703,797 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>02:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>02:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.064</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>02:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.032</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>03:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>03:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>03:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.256</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>03:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>04:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.704</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>04:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2.075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.752</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>04:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3.305</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.208</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>04:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.385</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>05:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Iteration</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Inter Miami Score</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Al Shabab Score</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.125</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>00:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.152</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>00:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>00:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.045</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>01:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.168</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>01:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>02:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>03:00</t>
         </is>
       </c>
     </row>

--- a/recorded_data.xlsx
+++ b/recorded_data.xlsx
@@ -3137,7 +3137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3494,6 +3494,41 @@
       <c r="G10" t="inlineStr">
         <is>
           <t>03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>03:14</t>
         </is>
       </c>
     </row>

--- a/recorded_data.xlsx
+++ b/recorded_data.xlsx
@@ -3137,7 +3137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3529,6 +3529,76 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>03:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>03:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>03:48</t>
         </is>
       </c>
     </row>

--- a/recorded_data.xlsx
+++ b/recorded_data.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="10187" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="539454738" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="560644045" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="560647799" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="583412418" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="599605313" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="599615441" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="599616469" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1040,7 +1039,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1055,7 +1054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,15 +1070,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Al Nassr Score</t>
+          <t>Al Shabab Score</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Seoul Score</t>
+          <t>Austin Score</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>Al Shabab Odd</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Austin Odd</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
@@ -1089,275 +1103,322 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.592</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.275</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G3" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G4" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G6" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="G7" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="G10" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1387,108 +1448,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Al-Ettifaq Score</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Al Ittihad Score</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Iteration</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Los Angeles Score</t>
+          <t>Al Nassr Score</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1498,6 +1458,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Al Nassr Odd</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>River Plate Odd</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Time</t>
         </is>
       </c>
@@ -1506,49 +1481,392 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G3" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.456</v>
+      </c>
+      <c r="G4" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G6" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="G7" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.664</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G8" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="G9" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="G10" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="G12" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23</v>
+      </c>
+      <c r="G13" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18</v>
+      </c>
+      <c r="G15" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>26</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30</v>
+      </c>
+      <c r="G17" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>341</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/recorded_data.xlsx
+++ b/recorded_data.xlsx
@@ -9,6 +9,8 @@
     <sheet name="599605313" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="599615441" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="599616469" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="637180970_2025-07-14" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="637183124_2025-07-14" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1871,4 +1873,1013 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Iteration</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lille OSC Score</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Borussia Monchengladbach Score</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Lille OSC Odd</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Borussia Monchengladbach Odd</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.952</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.304</v>
+      </c>
+      <c r="G6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G7" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G8" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.435</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G9" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.495</v>
+      </c>
+      <c r="G10" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.968</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.464</v>
+      </c>
+      <c r="G11" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G12" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="G13" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.392</v>
+      </c>
+      <c r="G14" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G15" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="G16" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" t="n">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Iteration</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Anderlecht Score</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar Score</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Anderlecht Odd</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar Odd</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.512</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.984</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.496</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30</v>
+      </c>
+      <c r="G12" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30</v>
+      </c>
+      <c r="F13" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F14" t="n">
+        <v>30</v>
+      </c>
+      <c r="G14" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30</v>
+      </c>
+      <c r="F16" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30</v>
+      </c>
+      <c r="G17" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30</v>
+      </c>
+      <c r="G19" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>30</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>